--- a/tests/testthat/MyDataOutput.xlsx
+++ b/tests/testthat/MyDataOutput.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov/30/2018</t>
+    <t xml:space="preserve">Dec/01/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/tests/testthat/MyDataOutput.xlsx
+++ b/tests/testthat/MyDataOutput.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Dec/01/2018</t>
+    <t xml:space="preserve">Dec/02/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/tests/testthat/MyDataOutput.xlsx
+++ b/tests/testthat/MyDataOutput.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Dec/02/2018</t>
+    <t xml:space="preserve">Dec/03/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/tests/testthat/MyDataOutput.xlsx
+++ b/tests/testthat/MyDataOutput.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Dec/03/2018</t>
+    <t xml:space="preserve">Dec/05/2018</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/tests/testthat/MyDataOutput.xlsx
+++ b/tests/testthat/MyDataOutput.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Dec/05/2018</t>
+    <t xml:space="preserve">Jun/25/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/tests/testthat/MyDataOutput.xlsx
+++ b/tests/testthat/MyDataOutput.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Jun/25/2019</t>
+    <t xml:space="preserve">Jun/26/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/tests/testthat/MyDataOutput.xlsx
+++ b/tests/testthat/MyDataOutput.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Jun/26/2019</t>
+    <t xml:space="preserve">Jun/27/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>

--- a/tests/testthat/MyDataOutput.xlsx
+++ b/tests/testthat/MyDataOutput.xlsx
@@ -22,7 +22,7 @@
     <t xml:space="preserve">Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Jun/27/2019</t>
+    <t xml:space="preserve">Jun/30/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Input file</t>
